--- a/rmnd_lca/data/lci-biodiesel_Cozzolini_2018.xlsx
+++ b/rmnd_lca/data/lci-biodiesel_Cozzolini_2018.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\rmnd-lca\rmnd_lca\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C77FD1-0E44-47C4-869A-FFC6802C80AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="biofuels_attributional" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="350">
   <si>
     <t>Database</t>
   </si>
@@ -1072,12 +1071,18 @@
   </si>
   <si>
     <t>Ethanol from wheat straw pellets</t>
+  </si>
+  <si>
+    <t>market for used vegetable cooking oil</t>
+  </si>
+  <si>
+    <t>used vegetable cooking oil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1228,23 +1233,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1280,23 +1268,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1472,14 +1443,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="50.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -9820,34 +9794,26 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>253</v>
+        <v>348</v>
       </c>
       <c r="B347">
-        <v>1.0246</v>
+        <f>1.0246/37</f>
+        <v>2.769189189189189E-2</v>
       </c>
       <c r="C347" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D347" t="s">
-        <v>13</v>
-      </c>
-      <c r="E347" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F347" t="s">
         <v>30</v>
-      </c>
-      <c r="G347">
-        <v>0</v>
-      </c>
-      <c r="H347">
-        <v>1.0246</v>
       </c>
       <c r="J347" t="s">
         <v>254</v>
       </c>
-      <c r="K347" t="s">
-        <v>253</v>
+      <c r="L347" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
